--- a/biology/Botanique/La_Récolte_des_pommes_de_terre/La_Récolte_des_pommes_de_terre.xlsx
+++ b/biology/Botanique/La_Récolte_des_pommes_de_terre/La_Récolte_des_pommes_de_terre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_R%C3%A9colte_des_pommes_de_terre</t>
+          <t>La_Récolte_des_pommes_de_terre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Récolte des pommes de terre est un tableau de Jean-Francois Millet, peint en 1855 et conservé au Walters Art Museum de Baltimore (Maryland).
 Le thème de « la récolte des pommes de terre » a également été traité par Camille Pissaro (1874, Pontoise) et Vincent van Gogh (1883, La Haye).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_R%C3%A9colte_des_pommes_de_terre</t>
+          <t>La_Récolte_des_pommes_de_terre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-François Millet a grandi en Normandie dans une famille d'agriculteurs. Après son apprentissage de peintre, il consacra son art à l'illustration de paysans travaillant la terre. Ses sujets sont souvent tirés des environs de Barbizon ou de souvenirs de jeunesse[1].   
-Dans les années 1850, Jean-François Millet a commencé à intégrer ses sujets dans des paysages. La Récolte des pommes de terre est l'une des neuf œuvres qui lui valurent une renommée internationale à l'Exposition universelle de Paris en 1867[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-François Millet a grandi en Normandie dans une famille d'agriculteurs. Après son apprentissage de peintre, il consacra son art à l'illustration de paysans travaillant la terre. Ses sujets sont souvent tirés des environs de Barbizon ou de souvenirs de jeunesse.   
+Dans les années 1850, Jean-François Millet a commencé à intégrer ses sujets dans des paysages. La Récolte des pommes de terre est l'une des neuf œuvres qui lui valurent une renommée internationale à l'Exposition universelle de Paris en 1867. 
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_R%C3%A9colte_des_pommes_de_terre</t>
+          <t>La_Récolte_des_pommes_de_terre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Récolte de pommes de terre dépeint le labeur des paysans dans la plaine située entre Barbizon et Chailly-en-Bière (département de Seine-et-Marne).
-La technique de Millet pour cette œuvre utilise des pigments pâteux appliqués en couches épaisses sur une toile à texture grossière[2].
+La technique de Millet pour cette œuvre utilise des pigments pâteux appliqués en couches épaisses sur une toile à texture grossière.
 </t>
         </is>
       </c>
